--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cambridge Technology Enterprises Ltd/Pruned_Excel/Pruned_Cash-flow_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cambridge Technology Enterprises Ltd/Pruned_Excel/Pruned_Cash-flow_combined.xlsx
@@ -492,25 +492,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.8084210526315792</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C2">
-        <v>4.775789473684211</v>
+        <v>4.78</v>
       </c>
       <c r="D2">
-        <v>-8.56421052631579</v>
+        <v>-8.56</v>
       </c>
       <c r="E2">
-        <v>4.234705882352942</v>
+        <v>4.23</v>
       </c>
       <c r="F2">
-        <v>-0.0005263157894737256</v>
+        <v>-0</v>
       </c>
       <c r="G2">
-        <v>1.561578947368421</v>
+        <v>1.56</v>
       </c>
       <c r="H2">
-        <v>1.562105263157894</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -735,7 +735,7 @@
         <v>-0.54</v>
       </c>
       <c r="E11">
-        <v>4.234705882352942</v>
+        <v>4.23</v>
       </c>
       <c r="F11">
         <v>-0.88</v>
@@ -787,7 +787,7 @@
         <v>-8.210000000000001</v>
       </c>
       <c r="E13">
-        <v>4.234705882352942</v>
+        <v>4.23</v>
       </c>
       <c r="F13">
         <v>0.73</v>
